--- a/Задание 1/Телефоны.xlsx
+++ b/Задание 1/Телефоны.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,13 +9,24 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Тест -кейс</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -24,15 +35,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,25 +63,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -96,9 +155,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +192,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,7 +227,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -341,13 +400,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>7500</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>7501</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>30000</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>30001</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>